--- a/data/grafy/graf5.xlsx
+++ b/data/grafy/graf5.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrkoci/code/inflace/data/grafy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C43BEB-40C7-8B43-8A8B-7409136A16C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DADC0BD-7F57-894A-8AE2-DEEDF56E701F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="3860" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2900" yWindow="3860" windowWidth="29760" windowHeight="18780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mzda-duchod" sheetId="1" r:id="rId1"/>
+    <sheet name="srovnání přírůstků" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <r>
       <t>Průměrná mzda
@@ -100,17 +101,27 @@
   <si>
     <t>pozn: data za 2021 ještě nejsou k dispozici</t>
   </si>
+  <si>
+    <t>starobní důchody</t>
+  </si>
+  <si>
+    <t>ceny</t>
+  </si>
+  <si>
+    <t>mzdy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0_ ;\-0.0\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -146,6 +157,46 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial CE"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial CE"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -343,11 +394,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,21 +465,6 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,9 +486,49 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="normální 2" xfId="1" xr:uid="{E48E6C8C-CE24-914E-9254-CB41D0D1B03D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1035,7 +1142,1016 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'srovnání přírůstků'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ceny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'srovnání přírůstků'!$A$3:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'srovnání přírůstků'!$B$3:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9999999999994316E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8DC-154C-91E6-292EA96950DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'srovnání přírůstků'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>starobní důchody</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'srovnání přírůstků'!$A$3:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'srovnání přírůstků'!$C$3:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7.5655887736424603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.568916619398749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3017077798861436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.696890056942621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.971671388101981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.07201889020071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.411640769028168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.670281995661597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3139083139083283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9899569583931083</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4636209813874927</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2008900190718208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.367215041128091</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5416361773745137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7561837455830442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5199449793672528</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7205578512396613</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8401123732747067</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.186349605579053</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.2228678148993595</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92583374813339958</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2316038666403699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1387337938866295</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.778930788474014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95584888484296471</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4616771866546401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98565519669099899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.407407407407419</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7952132142255124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4599919581825418</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5257655520130555</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.0888153358157524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8DC-154C-91E6-292EA96950DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'srovnání přírůstků'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mzdy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'srovnání přírůstků'!$A$3:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'srovnání přírůstků'!$D$3:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="4">
+                  <c:v>18.631436314363143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.603655054254716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.273745034308405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9440203562340912</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2482873541936783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4399627150241372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2280221927014168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5037516551419685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8711864406779739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2472503299604085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6252587991718457</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4313453536754679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3665700377399759</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6104283437034042</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2477182587088436</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4079371385688404</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0405549626467518</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3553528845751543</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5913512629771844</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.19521912350597859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8022833419823598</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4015454510154086</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3599083705734358</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.6390788053256529</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3077442213598687</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.8138143751752551</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0544718971246851</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.1511412708204745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A8DC-154C-91E6-292EA96950DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1743954431"/>
+        <c:axId val="1801713727"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1743954431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1801713727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1801713727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743954431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1591,6 +2707,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1612,6 +3244,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F532DFB-3F26-5F42-B19B-245E960E5303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBD5981-AF8A-2842-9158-370177B21BEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,10 +3629,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -1976,7 +3649,7 @@
     </row>
     <row r="2" spans="1:15" ht="14" thickBot="1"/>
     <row r="3" spans="1:15" ht="26">
-      <c r="A3" s="23"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1988,11 +3661,11 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14" thickBot="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:15" ht="14">
       <c r="A5" s="2">
@@ -2004,7 +3677,7 @@
       <c r="C5" s="15">
         <v>98.5</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -2018,7 +3691,7 @@
       <c r="C6" s="15">
         <v>76.7</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="21">
         <v>56.6</v>
       </c>
     </row>
@@ -2032,7 +3705,7 @@
       <c r="C7" s="15">
         <v>98.4</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="21">
         <v>11.1</v>
       </c>
       <c r="G7" t="s">
@@ -2049,7 +3722,7 @@
       <c r="C8" s="15">
         <v>94.8</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="21">
         <v>20.8</v>
       </c>
     </row>
@@ -2063,7 +3736,7 @@
       <c r="C9" s="15">
         <v>100.8</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="22">
         <v>10</v>
       </c>
     </row>
@@ -2077,7 +3750,7 @@
       <c r="C10" s="15">
         <v>106</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="21">
         <v>9.0999999999999943</v>
       </c>
     </row>
@@ -2091,7 +3764,7 @@
       <c r="C11" s="15">
         <v>107.6</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="21">
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -2105,7 +3778,7 @@
       <c r="C12" s="15">
         <v>104.5</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="21">
         <v>8.5</v>
       </c>
     </row>
@@ -2119,7 +3792,7 @@
       <c r="C13" s="15">
         <v>97.7</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="21">
         <v>10.7</v>
       </c>
     </row>
@@ -2133,7 +3806,7 @@
       <c r="C14" s="15">
         <v>104.2</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="21">
         <v>2.0999999999999943</v>
       </c>
       <c r="E14" t="s">
@@ -2156,7 +3829,7 @@
       <c r="C15" s="15">
         <v>99.5</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="21">
         <v>3.9000000000000057</v>
       </c>
       <c r="E15" s="11">
@@ -2180,19 +3853,19 @@
       <c r="C16" s="18">
         <v>100.4</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="23">
         <v>4.7</v>
       </c>
       <c r="E16" s="11">
-        <f>E15+E15*(B16-100)/100</f>
+        <f t="shared" ref="E16:E35" si="0">E15+E15*(B16-100)/100</f>
         <v>103.9</v>
       </c>
       <c r="F16" s="11">
-        <f>F15+F15*(C16-100)/100</f>
+        <f t="shared" ref="F16:F35" si="1">F15+F15*(C16-100)/100</f>
         <v>100.4</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G35" si="0">D16</f>
+        <f t="shared" ref="G16:G35" si="2">D16</f>
         <v>4.7</v>
       </c>
       <c r="H16" s="10"/>
@@ -2209,19 +3882,19 @@
       <c r="C17" s="18">
         <v>105</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="23">
         <v>1.8</v>
       </c>
       <c r="E17" s="11">
-        <f>E16+E16*(B17-100)/100</f>
+        <f t="shared" si="0"/>
         <v>110.2379</v>
       </c>
       <c r="F17" s="11">
-        <f>F16+F16*(C17-100)/100</f>
+        <f t="shared" si="1"/>
         <v>105.42</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="H17" s="10"/>
@@ -2238,19 +3911,19 @@
       <c r="C18" s="18">
         <v>103.1</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="23">
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="E18" s="11">
-        <f>E17+E17*(B18-100)/100</f>
+        <f t="shared" si="0"/>
         <v>116.5214603</v>
       </c>
       <c r="F18" s="11">
-        <f>F17+F17*(C18-100)/100</f>
+        <f t="shared" si="1"/>
         <v>108.68801999999999</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="H18" s="10"/>
@@ -2267,19 +3940,19 @@
       <c r="C19" s="18">
         <v>99.4</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="23">
         <v>2.8</v>
       </c>
       <c r="E19" s="11">
-        <f>E18+E18*(B19-100)/100</f>
+        <f t="shared" si="0"/>
         <v>120.48318995020001</v>
       </c>
       <c r="F19" s="11">
-        <f>F18+F18*(C19-100)/100</f>
+        <f t="shared" si="1"/>
         <v>108.03589187999999</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
       <c r="H19" s="10"/>
@@ -2296,19 +3969,19 @@
       <c r="C20" s="18">
         <v>104</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="23">
         <v>1.9000000000000057</v>
       </c>
       <c r="E20" s="11">
-        <f>E19+E19*(B20-100)/100</f>
+        <f t="shared" si="0"/>
         <v>124.09768564870602</v>
       </c>
       <c r="F20" s="11">
-        <f>F19+F19*(C20-100)/100</f>
+        <f t="shared" si="1"/>
         <v>112.35732755519999</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9000000000000057</v>
       </c>
       <c r="H20" s="10"/>
@@ -2327,19 +4000,19 @@
       <c r="C21" s="18">
         <v>102.1</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="23">
         <v>2.5</v>
       </c>
       <c r="E21" s="11">
-        <f>E20+E20*(B21-100)/100</f>
+        <f t="shared" si="0"/>
         <v>129.06159307465427</v>
       </c>
       <c r="F21" s="11">
-        <f>F20+F20*(C21-100)/100</f>
+        <f t="shared" si="1"/>
         <v>114.71683143385918</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="H21" s="10"/>
@@ -2358,19 +4031,19 @@
       <c r="C22" s="18">
         <v>103.1</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="23">
         <v>2.8</v>
       </c>
       <c r="E22" s="11">
-        <f>E21+E21*(B22-100)/100</f>
+        <f t="shared" si="0"/>
         <v>134.61124157686439</v>
       </c>
       <c r="F22" s="11">
-        <f>F21+F21*(C22-100)/100</f>
+        <f t="shared" si="1"/>
         <v>118.27305320830881</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
       <c r="H22" s="10"/>
@@ -2389,19 +4062,19 @@
       <c r="C23" s="18">
         <v>98.9</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="24">
         <v>6.3</v>
       </c>
       <c r="E23" s="11">
-        <f>E22+E22*(B23-100)/100</f>
+        <f t="shared" si="0"/>
         <v>136.4957989589405</v>
       </c>
       <c r="F23" s="11">
-        <f>F22+F22*(C23-100)/100</f>
+        <f t="shared" si="1"/>
         <v>116.97204962301743</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.3</v>
       </c>
       <c r="H23" s="10"/>
@@ -2419,19 +4092,19 @@
       <c r="C24" s="18">
         <v>105.7</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="25">
         <v>1</v>
       </c>
       <c r="E24" s="11">
-        <f>E23+E23*(B24-100)/100</f>
+        <f t="shared" si="0"/>
         <v>139.63520233499614</v>
       </c>
       <c r="F24" s="11">
-        <f>F23+F23*(C24-100)/100</f>
+        <f t="shared" si="1"/>
         <v>123.63945645152943</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H24" s="10"/>
@@ -2450,19 +4123,19 @@
       <c r="C25" s="18">
         <v>98.5</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="25">
         <v>1.5</v>
       </c>
       <c r="E25" s="11">
-        <f>E24+E24*(B25-100)/100</f>
+        <f t="shared" si="0"/>
         <v>140.61264875134111</v>
       </c>
       <c r="F25" s="11">
-        <f>F24+F24*(C25-100)/100</f>
+        <f t="shared" si="1"/>
         <v>121.78486460475648</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="H25" s="10"/>
@@ -2482,19 +4155,19 @@
       <c r="C26" s="18">
         <v>101.2</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="25">
         <v>1.9</v>
       </c>
       <c r="E26" s="11">
-        <f>E25+E25*(B26-100)/100</f>
+        <f t="shared" si="0"/>
         <v>141.45632464384914</v>
       </c>
       <c r="F26" s="11">
-        <f>F25+F25*(C26-100)/100</f>
+        <f t="shared" si="1"/>
         <v>123.24628298001356</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
       <c r="H26" s="10"/>
@@ -2513,19 +4186,19 @@
       <c r="C27" s="18">
         <v>97.6</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="25">
         <v>3.3</v>
       </c>
       <c r="E27" s="11">
-        <f>E26+E26*(B27-100)/100</f>
+        <f t="shared" si="0"/>
         <v>140.32467404669836</v>
       </c>
       <c r="F27" s="11">
-        <f>F26+F26*(C27-100)/100</f>
+        <f t="shared" si="1"/>
         <v>120.28837218849323</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3</v>
       </c>
       <c r="H27" s="10"/>
@@ -2544,19 +4217,19 @@
       <c r="C28" s="18">
         <v>99.8</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="25">
         <v>1.4</v>
       </c>
       <c r="E28" s="11">
-        <f>E27+E27*(B28-100)/100</f>
+        <f t="shared" si="0"/>
         <v>138.21980393599787</v>
       </c>
       <c r="F28" s="11">
-        <f>F27+F27*(C28-100)/100</f>
+        <f t="shared" si="1"/>
         <v>120.04779544411623</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
       <c r="H28" s="10"/>
@@ -2575,19 +4248,19 @@
       <c r="C29" s="18">
         <v>101.1</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="25">
         <v>0.4</v>
       </c>
       <c r="E29" s="11">
-        <f>E28+E28*(B29-100)/100</f>
+        <f t="shared" si="0"/>
         <v>141.67529903439782</v>
       </c>
       <c r="F29" s="11">
-        <f>F28+F28*(C29-100)/100</f>
+        <f t="shared" si="1"/>
         <v>121.36832119400151</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="H29" s="10"/>
@@ -2606,19 +4279,19 @@
       <c r="C30" s="13">
         <v>102.4</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="25">
         <v>0.3</v>
       </c>
       <c r="E30" s="11">
-        <f>E29+E29*(B30-100)/100</f>
+        <f t="shared" si="0"/>
         <v>145.78388270639536</v>
       </c>
       <c r="F30" s="11">
-        <f>F29+F29*(C30-100)/100</f>
+        <f t="shared" si="1"/>
         <v>124.28116090265755</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="H30" s="10"/>
@@ -2637,19 +4310,19 @@
       <c r="C31" s="13">
         <v>100.4</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="25">
         <v>0.7</v>
       </c>
       <c r="E31" s="11">
-        <f>E30+E30*(B31-100)/100</f>
+        <f t="shared" si="0"/>
         <v>151.17788636653199</v>
       </c>
       <c r="F31" s="11">
-        <f>F30+F30*(C31-100)/100</f>
+        <f t="shared" si="1"/>
         <v>124.77828554626818</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="H31" s="10"/>
@@ -2667,19 +4340,19 @@
       <c r="C32" s="13">
         <v>101.2</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="25">
         <v>2.5</v>
       </c>
       <c r="E32" s="11">
-        <f>E31+E31*(B32-100)/100</f>
+        <f t="shared" si="0"/>
         <v>157.52735759392635</v>
       </c>
       <c r="F32" s="11">
-        <f>F31+F31*(C32-100)/100</f>
+        <f t="shared" si="1"/>
         <v>126.27562497282341</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="H32" s="20"/>
@@ -2699,19 +4372,19 @@
       <c r="C33" s="13">
         <v>103.2</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="26">
         <v>2.1</v>
       </c>
       <c r="E33" s="11">
-        <f>E32+E32*(B33-100)/100</f>
+        <f t="shared" si="0"/>
         <v>166.82147169196801</v>
       </c>
       <c r="F33" s="11">
-        <f>F32+F32*(C33-100)/100</f>
+        <f t="shared" si="1"/>
         <v>130.31644497195376</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
       <c r="H33" s="20"/>
@@ -2730,19 +4403,19 @@
       <c r="C34" s="13">
         <v>104.9</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="25">
         <v>2.8</v>
       </c>
       <c r="E34" s="11">
-        <f>E33+E33*(B34-100)/100</f>
+        <f t="shared" si="0"/>
         <v>175.16254527656642</v>
       </c>
       <c r="F34" s="11">
-        <f>F33+F33*(C34-100)/100</f>
+        <f t="shared" si="1"/>
         <v>136.70195077557949</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
       <c r="H34" s="20"/>
@@ -2760,19 +4433,19 @@
       <c r="C35" s="13">
         <v>104</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="27">
         <v>3.2</v>
       </c>
       <c r="E35" s="11">
-        <f>E34+E34*(B35-100)/100</f>
+        <f t="shared" si="0"/>
         <v>174.98738273128987</v>
       </c>
       <c r="F35" s="11">
-        <f>F34+F34*(C35-100)/100</f>
+        <f t="shared" si="1"/>
         <v>142.17002880660266</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="H35" s="10"/>
@@ -2788,16 +4461,202 @@
       <c r="F36" s="11"/>
     </row>
     <row r="38" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="6" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="43" spans="1:15" ht="14">
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" ht="14">
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:15" ht="14">
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" ht="14">
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" ht="14">
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" ht="14">
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="4:7" ht="14">
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="4:7" ht="14">
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="4:7" ht="14">
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="4:7" ht="14">
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="4:7" ht="15" thickBot="1">
+      <c r="D53" s="16"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="4:7" ht="15" thickTop="1">
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="4:7" ht="14">
+      <c r="D55" s="19"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="4:7" ht="14">
+      <c r="D56" s="19"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="4:7" ht="14">
+      <c r="D57" s="19"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="4:7" ht="14">
+      <c r="D58" s="19"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="4:7" ht="14">
+      <c r="D59" s="19"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="4:7" ht="14">
+      <c r="D60" s="19"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="4:7" ht="14">
+      <c r="D61" s="19"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="4:7" ht="14">
+      <c r="D62" s="19"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="4:7" ht="14">
+      <c r="D63" s="19"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="4:7" ht="14">
+      <c r="D64" s="19"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="4:7" ht="14">
+      <c r="D65" s="19"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="4:7" ht="14">
+      <c r="D66" s="19"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="4:7" ht="14">
+      <c r="D67" s="19"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="4:7" ht="14">
+      <c r="D68" s="19"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="4:7" ht="14">
+      <c r="D69" s="19"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="4:7" ht="14">
+      <c r="D70" s="19"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="4:7" ht="14">
+      <c r="D71" s="19"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="4:7" ht="14">
+      <c r="D72" s="19"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="4:7" ht="14">
+      <c r="D73" s="19"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2811,4 +4670,713 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F5BBAD-1244-EA4D-AF77-9D7A7F30CF34}">
+  <dimension ref="A2:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="33">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14">
+      <c r="A3" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B3" s="21">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C3">
+        <f>H3/H2*100-100</f>
+        <v>7.5655887736424603</v>
+      </c>
+      <c r="H3" s="33">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14">
+      <c r="A4" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B4" s="21">
+        <v>56.6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:D34" si="0">H4/H3*100-100</f>
+        <v>19.568916619398749</v>
+      </c>
+      <c r="H4" s="33">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14">
+      <c r="A5" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B5" s="21">
+        <v>11.1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>8.3017077798861436</v>
+      </c>
+      <c r="H5" s="33">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14">
+      <c r="A6" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B6" s="21">
+        <v>20.8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>23.696890056942621</v>
+      </c>
+      <c r="H6" s="33">
+        <v>2824</v>
+      </c>
+      <c r="I6" s="37">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14">
+      <c r="A7" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B7" s="22">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>19.971671388101981</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>18.631436314363143</v>
+      </c>
+      <c r="H7" s="34">
+        <v>3388</v>
+      </c>
+      <c r="I7" s="37">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14">
+      <c r="A8" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B8" s="21">
+        <v>9.0999999999999943</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>12.07201889020071</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>18.603655054254716</v>
+      </c>
+      <c r="H8" s="34">
+        <v>3797</v>
+      </c>
+      <c r="I8" s="37">
+        <v>8307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14">
+      <c r="A9" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B9" s="21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>21.411640769028168</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>18.273745034308405</v>
+      </c>
+      <c r="H9" s="34">
+        <v>4610</v>
+      </c>
+      <c r="I9" s="37">
+        <v>9825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14">
+      <c r="A10" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B10" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>11.670281995661597</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9.9440203562340912</v>
+      </c>
+      <c r="H10" s="33">
+        <v>5148</v>
+      </c>
+      <c r="I10" s="37">
+        <v>10802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14">
+      <c r="A11" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B11" s="21">
+        <v>10.7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>8.3139083139083283</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>9.2482873541936783</v>
+      </c>
+      <c r="H11" s="33">
+        <v>5576</v>
+      </c>
+      <c r="I11" s="37">
+        <v>11801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14">
+      <c r="A12" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B12" s="21">
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>5.9899569583931083</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>8.4399627150241372</v>
+      </c>
+      <c r="H12" s="33">
+        <v>5910</v>
+      </c>
+      <c r="I12" s="38">
+        <v>12797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14">
+      <c r="A13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="21">
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>6.4636209813874927</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>6.2280221927014168</v>
+      </c>
+      <c r="H13" s="33">
+        <v>6292</v>
+      </c>
+      <c r="I13" s="39">
+        <v>13594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14">
+      <c r="A14" s="12">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="23">
+        <v>4.7</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>8.2008900190718208</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>8.5037516551419685</v>
+      </c>
+      <c r="H14" s="33">
+        <v>6808</v>
+      </c>
+      <c r="I14" s="37">
+        <v>14750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14">
+      <c r="A15" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.367215041128091</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>7.8711864406779739</v>
+      </c>
+      <c r="H15" s="33">
+        <v>6833</v>
+      </c>
+      <c r="I15" s="37">
+        <v>15911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14">
+      <c r="A16" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B16" s="23">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3.5416361773745137</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>6.2472503299604085</v>
+      </c>
+      <c r="H16" s="33">
+        <v>7075</v>
+      </c>
+      <c r="I16" s="37">
+        <v>16905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14">
+      <c r="A17" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2.7561837455830442</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>6.6252587991718457</v>
+      </c>
+      <c r="H17" s="33">
+        <v>7270</v>
+      </c>
+      <c r="I17" s="37">
+        <v>18025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14">
+      <c r="A18" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="23">
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>6.5199449793672528</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.4313453536754679</v>
+      </c>
+      <c r="H18" s="33">
+        <v>7744</v>
+      </c>
+      <c r="I18" s="40">
+        <v>18283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14">
+      <c r="A19" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5.7205578512396613</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>6.3665700377399759</v>
+      </c>
+      <c r="H19" s="33">
+        <v>8187</v>
+      </c>
+      <c r="I19" s="40">
+        <v>19447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14">
+      <c r="A20" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B20" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>6.8401123732747067</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>7.6104283437034042</v>
+      </c>
+      <c r="H20" s="33">
+        <v>8747</v>
+      </c>
+      <c r="I20" s="41">
+        <v>20927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14">
+      <c r="A21" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="24">
+        <v>6.3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>10.186349605579053</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>8.2477182587088436</v>
+      </c>
+      <c r="H21" s="35">
+        <v>9638</v>
+      </c>
+      <c r="I21" s="42">
+        <v>22653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14">
+      <c r="A22" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B22" s="25">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4.2228678148993595</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>3.4079371385688404</v>
+      </c>
+      <c r="H22" s="35">
+        <v>10045</v>
+      </c>
+      <c r="I22" s="42">
+        <v>23425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14">
+      <c r="A23" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.92583374813339958</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.0405549626467518</v>
+      </c>
+      <c r="H23" s="35">
+        <v>10138</v>
+      </c>
+      <c r="I23" s="41">
+        <v>23903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14">
+      <c r="A24" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>4.2316038666403699</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2.3553528845751543</v>
+      </c>
+      <c r="H24" s="35">
+        <v>10567</v>
+      </c>
+      <c r="I24" s="41">
+        <v>24466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14">
+      <c r="A25" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2.1387337938866295</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2.5913512629771844</v>
+      </c>
+      <c r="H25" s="35">
+        <v>10793</v>
+      </c>
+      <c r="I25" s="42">
+        <v>25100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14">
+      <c r="A26" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.778930788474014</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-0.19521912350597859</v>
+      </c>
+      <c r="H26" s="35">
+        <v>10985</v>
+      </c>
+      <c r="I26" s="41">
+        <v>25051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14">
+      <c r="A27" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.95584888484296471</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>2.8022833419823598</v>
+      </c>
+      <c r="H27" s="35">
+        <v>11090</v>
+      </c>
+      <c r="I27" s="41">
+        <v>25753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14">
+      <c r="A28" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2.4616771866546401</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>3.4015454510154086</v>
+      </c>
+      <c r="H28" s="35">
+        <v>11363</v>
+      </c>
+      <c r="I28" s="43">
+        <v>26629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14">
+      <c r="A29" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.98565519669099899</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>4.3599083705734358</v>
+      </c>
+      <c r="H29" s="35">
+        <v>11475</v>
+      </c>
+      <c r="I29" s="43">
+        <v>27790</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14">
+      <c r="A30" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3.407407407407419</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>6.6390788053256529</v>
+      </c>
+      <c r="H30" s="35">
+        <v>11866</v>
+      </c>
+      <c r="I30" s="43">
+        <v>29635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14">
+      <c r="A31" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>4.7952132142255124</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>8.3077442213598687</v>
+      </c>
+      <c r="H31" s="35">
+        <v>12435</v>
+      </c>
+      <c r="I31" s="43">
+        <v>32097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1">
+      <c r="A32" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B32" s="25">
+        <v>2.8</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>8.4599919581825418</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>7.8138143751752551</v>
+      </c>
+      <c r="H32" s="35">
+        <v>13487</v>
+      </c>
+      <c r="I32" s="43">
+        <v>34605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14">
+      <c r="A33" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>7.5257655520130555</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>3.0544718971246851</v>
+      </c>
+      <c r="H33" s="36">
+        <v>14502</v>
+      </c>
+      <c r="I33" s="44">
+        <v>35662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14">
+      <c r="A34" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="25">
+        <v>3.8</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>6.0888153358157524</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>5.1511412708204745</v>
+      </c>
+      <c r="H34" s="46">
+        <v>15385</v>
+      </c>
+      <c r="I34" s="45">
+        <v>37499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>